--- a/output/inference_results/test_sheets/batch_004/test_sheet (45).xlsx
+++ b/output/inference_results/test_sheets/batch_004/test_sheet (45).xlsx
@@ -446,7 +446,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>促甲状腺素（TSH</t>
+          <t>促甲状腺素</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -468,7 +468,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>血清甲状腺素（T4</t>
+          <t>血清甲状腺素</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -490,7 +490,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>血清游离四碘甲状腺原氨酸（FT4</t>
+          <t>血清游离四碘甲状腺原氨酸</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>pg/mL</t>
+          <t>pg</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -512,7 +512,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>血清三碘甲状腺原氨酸（T3</t>
+          <t>血清三碘甲状腺原氨酸</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -534,7 +534,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5.血清游离三碘甲状腺原氨酸（FT3</t>
+          <t>血清游离三碘甲状腺原氨酸</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -544,7 +544,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>pg/mL</t>
+          <t>pg</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
